--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,91 +22,133 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>007012</t>
+  </si>
+  <si>
     <t>004496</t>
   </si>
   <si>
+    <t>008128</t>
+  </si>
+  <si>
+    <t>008180</t>
+  </si>
+  <si>
     <t>004497</t>
   </si>
   <si>
-    <t>007012</t>
+    <t>008050</t>
   </si>
   <si>
     <t>007013</t>
   </si>
   <si>
-    <t>008050</t>
+    <t>008129</t>
+  </si>
+  <si>
+    <t>008093</t>
+  </si>
+  <si>
+    <t>008094</t>
   </si>
   <si>
     <t>008051</t>
   </si>
   <si>
-    <t>008093</t>
-  </si>
-  <si>
-    <t>008094</t>
-  </si>
-  <si>
-    <t>008128</t>
-  </si>
-  <si>
-    <t>008129</t>
-  </si>
-  <si>
-    <t>008180</t>
-  </si>
-  <si>
     <t>008181</t>
   </si>
   <si>
+    <t>湘财长顺混合A</t>
+  </si>
+  <si>
     <t>前海开源多元策略灵活配置混合A</t>
   </si>
   <si>
+    <t>湘财长源股票A</t>
+  </si>
+  <si>
+    <t>同泰慧利混合A</t>
+  </si>
+  <si>
     <t>前海开源多元策略灵活配置混合C</t>
   </si>
   <si>
-    <t>湘财长顺混合A</t>
+    <t>同泰慧择混合A</t>
   </si>
   <si>
     <t>湘财长顺混合C</t>
   </si>
   <si>
-    <t>同泰慧择混合A</t>
+    <t>湘财长源股票C</t>
+  </si>
+  <si>
+    <t>同泰慧选混合A</t>
+  </si>
+  <si>
+    <t>同泰慧选混合C</t>
   </si>
   <si>
     <t>同泰慧择混合C</t>
   </si>
   <si>
-    <t>同泰慧选混合A</t>
-  </si>
-  <si>
-    <t>同泰慧选混合C</t>
-  </si>
-  <si>
-    <t>湘财长源股票A</t>
-  </si>
-  <si>
-    <t>湘财长源股票C</t>
-  </si>
-  <si>
-    <t>同泰慧利混合A</t>
-  </si>
-  <si>
     <t>同泰慧利混合C</t>
   </si>
   <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>93.01</t>
+  </si>
+  <si>
     <t>91.42</t>
   </si>
   <si>
-    <t>93.01</t>
+    <t>94.68</t>
+  </si>
+  <si>
+    <t>94.33</t>
   </si>
   <si>
     <t>95.06</t>
@@ -115,16 +157,16 @@
     <t>94.45</t>
   </si>
   <si>
-    <t>94.68</t>
-  </si>
-  <si>
-    <t>94.33</t>
+    <t>4.09</t>
   </si>
   <si>
     <t>5.13</t>
   </si>
   <si>
-    <t>4.09</t>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>3.52</t>
   </si>
   <si>
     <t>4.29</t>
@@ -133,10 +175,40 @@
     <t>4.74</t>
   </si>
   <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>3.52</t>
+    <t>0.1104</t>
+  </si>
+  <si>
+    <t>0.0862</t>
+  </si>
+  <si>
+    <t>0.0735</t>
+  </si>
+  <si>
+    <t>0.0595</t>
+  </si>
+  <si>
+    <t>0.0580</t>
+  </si>
+  <si>
+    <t>0.0442</t>
+  </si>
+  <si>
+    <t>0.0344</t>
+  </si>
+  <si>
+    <t>0.0304</t>
+  </si>
+  <si>
+    <t>0.0303</t>
+  </si>
+  <si>
+    <t>0.0085</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>0.0042</t>
   </si>
 </sst>
 </file>
@@ -494,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,244 +588,322 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.32</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1786,13 +1851,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.89</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.32</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2407,7 +2408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,17 +2419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2438,14 +2459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.73</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2454,14 +2497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.89</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2470,14 +2535,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.32</v>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2486,14 +2573,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.63</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2502,13 +2611,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,509 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湘财长顺混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1104</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0862</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008128</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财长源股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0735</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008180</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>同泰慧利混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0442</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>湘财长顺混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0344</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008181</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>同泰慧利混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -968,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1019,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>嘉实中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>99.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4245</t>
+          <t>0.9789</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1057,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>98.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1774</t>
+          <t>0.3911</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1095,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>501062</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>75.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.2534</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1133,36 +753,226 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1007,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1237,26 +1047,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>25.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.52</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9302</t>
+          <t>0.9816</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1265,36 +1075,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.51</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>98.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7788</t>
+          <t>0.4336</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1303,36 +1113,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>易方达中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>99.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5401</t>
+          <t>0.1317</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1341,36 +1151,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>159713</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>99.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5025</t>
+          <t>0.1268</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1379,36 +1189,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3405</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1417,36 +1227,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008997</t>
+          <t>014331</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合A</t>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0636</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1455,36 +1265,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008998</t>
+          <t>014332</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合C</t>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1493,226 +1303,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004737</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国新优享灵活配置混合A</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.05</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011127</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008842</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.77</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008843</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.77</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004747</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国新优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,7 +1689,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2109,26 +1729,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.17</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9816</t>
+          <t>0.9302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2137,36 +1757,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4336</t>
+          <t>0.7788</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2175,36 +1795,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>516780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>华泰柏瑞中证稀土产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>98.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.5401</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2213,36 +1833,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159713</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1268</t>
+          <t>0.5025</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2251,36 +1871,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.3405</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2289,36 +1909,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014331</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2327,36 +1947,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014332</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2365,36 +1985,226 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>004737</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>富国新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>25.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0455</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2429,7 +2239,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2459,36 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9789</t>
+          <t>0.4245</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2497,36 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3911</t>
+          <t>0.1774</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2535,32 +2345,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501062</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.20</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2534</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2573,226 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159715</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达中证稀土产业ETF</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1163</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159713</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1052</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012808</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2806,128 +2426,508 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.54</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
+++ b/数据整理/stocks/A股/深证主板/000831-五矿稀土.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.93</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.32</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1662,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2212,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
